--- a/Complete_code/CORAL/results/Emissions/all_scenarios.xlsx
+++ b/Complete_code/CORAL/results/Emissions/all_scenarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,14 +482,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>449444.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.808692224</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2161239.070096512</v>
-      </c>
+        <v>24635.25</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -499,23 +495,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11088</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.875224448</v>
-      </c>
-      <c r="F3" t="n">
-        <v>164936.488679424</v>
-      </c>
+        <v>424809</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,23 +517,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Idle at port</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>678265.29262013</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.407310331</v>
-      </c>
-      <c r="F4" t="n">
-        <v>276264.460842917</v>
-      </c>
+        <v>11088</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -556,17 +544,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Idle at sea</t>
+          <t>Idle at port</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>108108</v>
+        <v>678265.29262013</v>
       </c>
       <c r="E5" t="n">
-        <v>0.203655165</v>
+        <v>0.407310331</v>
       </c>
       <c r="F5" t="n">
-        <v>22016.75257782</v>
+        <v>276264.460842917</v>
       </c>
     </row>
     <row r="6">
@@ -582,17 +570,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maneuvering</t>
+          <t>Idle at sea</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8316</v>
+        <v>108108</v>
       </c>
       <c r="E6" t="n">
-        <v>2.698858249</v>
+        <v>0.203655165</v>
       </c>
       <c r="F6" t="n">
-        <v>22443.705198684</v>
+        <v>22016.75257782</v>
       </c>
     </row>
     <row r="7">
@@ -608,43 +596,43 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Maneuvering</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>198897.0324545454</v>
+        <v>8316</v>
       </c>
       <c r="E7" t="n">
-        <v>4.753093345</v>
+        <v>2.698858249</v>
       </c>
       <c r="F7" t="n">
-        <v>945376.1612999489</v>
+        <v>22443.705198684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25 GW (CC)</t>
+          <t>25 GW (SC)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Towing Group</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Idle at port</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>450177.5</v>
+        <v>198897.0324545454</v>
       </c>
       <c r="E8" t="n">
-        <v>4.808692224</v>
+        <v>4.753093345</v>
       </c>
       <c r="F8" t="n">
-        <v>2164765.04366976</v>
+        <v>945376.1612999489</v>
       </c>
     </row>
     <row r="9">
@@ -655,23 +643,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Idle at port</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11088</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.875224448</v>
-      </c>
-      <c r="F9" t="n">
-        <v>164936.488679424</v>
-      </c>
+        <v>25368.5</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,23 +665,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Idle at port</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>672579.5244204547</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.407310331</v>
-      </c>
-      <c r="F10" t="n">
-        <v>273948.588715518</v>
-      </c>
+        <v>424809</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -707,23 +687,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Idle at sea</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108108</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.203655165</v>
-      </c>
-      <c r="F11" t="n">
-        <v>22016.75257782</v>
-      </c>
+        <v>11088</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -738,17 +714,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Maneuvering</t>
+          <t>Idle at port</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8316</v>
+        <v>672579.5244204547</v>
       </c>
       <c r="E12" t="n">
-        <v>2.698858249</v>
+        <v>0.407310331</v>
       </c>
       <c r="F12" t="n">
-        <v>22443.705198684</v>
+        <v>273948.588715518</v>
       </c>
     </row>
     <row r="13">
@@ -764,54 +740,54 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Idle at sea</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72408.375</v>
+        <v>108108</v>
       </c>
       <c r="E13" t="n">
-        <v>4.753093345</v>
+        <v>0.203655165</v>
       </c>
       <c r="F13" t="n">
-        <v>344163.7653347644</v>
+        <v>22016.75257782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35 GW</t>
+          <t>25 GW (CC)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Towing Group</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Idle at port</t>
+          <t>Maneuvering</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>628238.125</v>
+        <v>8316</v>
       </c>
       <c r="E14" t="n">
-        <v>4.808692224</v>
+        <v>2.698858249</v>
       </c>
       <c r="F14" t="n">
-        <v>3021003.78650784</v>
+        <v>22443.705198684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>35 GW</t>
+          <t>25 GW (CC)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Towing Group</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -820,13 +796,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15496</v>
+        <v>72408.375</v>
       </c>
       <c r="E15" t="n">
-        <v>14.875224448</v>
+        <v>4.753093345</v>
       </c>
       <c r="F15" t="n">
-        <v>230506.478046208</v>
+        <v>344163.7653347644</v>
       </c>
     </row>
     <row r="16">
@@ -837,7 +813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -846,14 +822,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>929730.2761655845</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.407310331</v>
-      </c>
-      <c r="F16" t="n">
-        <v>378688.7465257256</v>
-      </c>
+        <v>34547.625</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -863,23 +835,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Idle at sea</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>151086</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.203655165</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30769.44425919</v>
-      </c>
+        <v>593690.5</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -889,23 +857,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maneuvering</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11622</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.698858249</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31366.130569878</v>
-      </c>
+        <v>15496</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -920,75 +884,75 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Idle at port</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>244802.1761883117</v>
+        <v>929730.2761655845</v>
       </c>
       <c r="E19" t="n">
-        <v>4.753093345</v>
+        <v>0.407310331</v>
       </c>
       <c r="F19" t="n">
-        <v>1163567.594482182</v>
+        <v>378688.7465257256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55 GW</t>
+          <t>35 GW</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Towing Group</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Idle at port</t>
+          <t>Idle at sea</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>953029.5</v>
+        <v>151086</v>
       </c>
       <c r="E20" t="n">
-        <v>4.808692224</v>
+        <v>0.203655165</v>
       </c>
       <c r="F20" t="n">
-        <v>4582825.545892607</v>
+        <v>30769.44425919</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>55 GW</t>
+          <t>35 GW</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HLV</t>
+          <t>Towing Group</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Maneuvering</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23496</v>
+        <v>11622</v>
       </c>
       <c r="E21" t="n">
-        <v>14.875224448</v>
+        <v>2.698858249</v>
       </c>
       <c r="F21" t="n">
-        <v>349508.273630208</v>
+        <v>31366.130569878</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>55 GW</t>
+          <t>35 GW</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -998,17 +962,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Idle at port</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1523056.469892857</v>
+        <v>244802.1761883117</v>
       </c>
       <c r="E22" t="n">
-        <v>0.407310331</v>
+        <v>4.753093345</v>
       </c>
       <c r="F22" t="n">
-        <v>620356.6348837512</v>
+        <v>1163567.594482182</v>
       </c>
     </row>
     <row r="23">
@@ -1019,23 +983,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Idle at sea</t>
+          <t>Idle at port</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>229086</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.203655165</v>
-      </c>
-      <c r="F23" t="n">
-        <v>46654.54712919</v>
-      </c>
+        <v>52839</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1045,23 +1005,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Maneuvering</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17622</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.698858249</v>
-      </c>
-      <c r="F24" t="n">
-        <v>47559.280063878</v>
-      </c>
+        <v>900190.5</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1071,7 +1027,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Towing Group</t>
+          <t>Onshore</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1080,12 +1036,112 @@
         </is>
       </c>
       <c r="D25" t="n">
+        <v>23496</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>55 GW</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Towing Group</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Idle at port</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1523056.469892857</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.407310331</v>
+      </c>
+      <c r="F26" t="n">
+        <v>620356.6348837512</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>55 GW</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Towing Group</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Idle at sea</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>229086</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.203655165</v>
+      </c>
+      <c r="F27" t="n">
+        <v>46654.54712919</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>55 GW</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Towing Group</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Maneuvering</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>17622</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.698858249</v>
+      </c>
+      <c r="F28" t="n">
+        <v>47559.280063878</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>55 GW</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Towing Group</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Transit</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>536067.7882012987</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E29" t="n">
         <v>4.753093345</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F29" t="n">
         <v>2547980.236568462</v>
       </c>
     </row>
